--- a/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
+++ b/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/david_morisetti_studentfr_ch/Documents/Module 133/133_projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395E6298-DAC2-416E-9CF6-D1AD36458B23}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905D0017-84B3-4B99-B3C0-7A72E094FF55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Planning</t>
   </si>
@@ -316,12 +316,24 @@
   <si>
     <t>Discussion projet + documentation de l'introduction + planning</t>
   </si>
+  <si>
+    <t>Use case et diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Fin use case et début implémentation de l'API Rest</t>
+  </si>
+  <si>
+    <t>Fin use case et début implémentation de l'API Rest + schéma de classe</t>
+  </si>
+  <si>
+    <t>Fin de la rest1 + mise à jour des schémas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,6 +966,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,18 +1264,18 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F27"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="34" customWidth="1"/>
     <col min="2" max="11" width="8" customWidth="1"/>
     <col min="12" max="17" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1293,8 @@
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:17" ht="21.75" thickBot="1">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>43</v>
       </c>
@@ -1302,7 +1318,7 @@
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" thickBot="1">
+    <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
@@ -1325,8 +1341,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1370,7 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="48"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.45" customHeight="1">
+    <row r="9" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1456,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1477,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="30" outlineLevel="1">
+    <row r="11" spans="1:17" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>48</v>
       </c>
@@ -1484,7 +1500,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>49</v>
       </c>
@@ -1495,7 +1511,9 @@
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="53"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11"/>
@@ -1505,7 +1523,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1544,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>51</v>
       </c>
@@ -1537,7 +1555,9 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -1547,7 +1567,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1588,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>52</v>
       </c>
@@ -1580,8 +1600,12 @@
       <c r="G16" s="50"/>
       <c r="H16" s="53"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="M16" s="6"/>
       <c r="N16" s="12"/>
@@ -1589,7 +1613,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" outlineLevel="1">
+    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>53</v>
       </c>
@@ -1601,7 +1625,9 @@
       <c r="G17" s="50"/>
       <c r="H17" s="53"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
       <c r="M17" s="6"/>
@@ -1610,7 +1636,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" outlineLevel="1">
+    <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="11"/>
       <c r="C18" s="6"/>
@@ -1629,7 +1655,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1668,9 @@
       <c r="H19" s="53"/>
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="5"/>
       <c r="N19" s="10"/>
@@ -1650,7 +1678,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" outlineLevel="1">
+    <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="11"/>
       <c r="C20" s="6"/>
@@ -1669,7 +1697,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" outlineLevel="1">
+    <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="11"/>
       <c r="C21" s="6"/>
@@ -1688,7 +1716,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1737,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" outlineLevel="1">
+    <row r="23" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="11"/>
       <c r="C23" s="6"/>
@@ -1728,7 +1756,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" outlineLevel="1">
+    <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
@@ -1747,7 +1775,7 @@
       <c r="P24" s="30"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="1:17" outlineLevel="1">
+    <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" outlineLevel="1">
+    <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1791,7 +1819,7 @@
       <c r="P26" s="30"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="27" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>22</v>
       </c>
@@ -1844,25 +1872,25 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1899,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1880,7 +1908,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5">
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45379</v>
       </c>
@@ -1902,107 +1930,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>45400</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>45401</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="20"/>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20"/>
       <c r="C13" s="24"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20"/>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20"/>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20"/>
       <c r="C17" s="24"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20"/>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="20"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>19</v>
       </c>
@@ -2027,26 +2067,26 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2095,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2104,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5">
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45379</v>
       </c>
@@ -2086,107 +2126,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>45400</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>45401</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>45407</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20"/>
       <c r="C13" s="24"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20"/>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20"/>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20"/>
       <c r="C17" s="24"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20"/>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="20"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>19</v>
       </c>

--- a/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
+++ b/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/david_morisetti_studentfr_ch/Documents/Module 133/133_projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905D0017-84B3-4B99-B3C0-7A72E094FF55}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1417AF40-8665-454F-BFC6-45605BBA9156}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Planning</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>Fin de la rest1 + mise à jour des schémas</t>
+  </si>
+  <si>
+    <t>Finission API REST</t>
+  </si>
+  <si>
+    <t>Discussion hebergement avec autre classe</t>
+  </si>
+  <si>
+    <t>continuation API REST</t>
+  </si>
+  <si>
+    <t>Préparation premier deploiement</t>
+  </si>
+  <si>
+    <t>API Gateway + Commencement front end</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1646,6 @@
       <c r="J17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="10"/>
       <c r="L17" s="11"/>
       <c r="M17" s="6"/>
       <c r="N17" s="12"/>
@@ -1647,7 +1664,7 @@
       <c r="H18" s="53"/>
       <c r="I18" s="11"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="11"/>
       <c r="M18" s="6"/>
       <c r="N18" s="12"/>
@@ -1671,9 +1688,15 @@
       <c r="K19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="12"/>
@@ -1793,12 +1816,8 @@
       <c r="M25" s="30"/>
       <c r="N25" s="31"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>58</v>
-      </c>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
@@ -1872,7 +1891,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,24 +1972,48 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="23">
+        <v>45407</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="24">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -2014,7 +2057,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>10.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,8 +2110,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,22 +2198,42 @@
       <c r="B11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="24">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="23">
+        <v>45408</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="24">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -2214,7 +2277,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>10.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
+++ b/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/david_morisetti_studentfr_ch/Documents/Module 133/133_projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1417AF40-8665-454F-BFC6-45605BBA9156}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5BD29D-204D-4190-88F5-A98ED29B9556}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Planning</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>API Gateway</t>
+  </si>
+  <si>
+    <t>API Gateway corrigé et hébergé + client avancé</t>
+  </si>
+  <si>
+    <t>Client avancé</t>
+  </si>
+  <si>
+    <t>Continuation front end (gestion utilsateurs)</t>
+  </si>
+  <si>
+    <t>Continuation front end (remplissage des quiz + like et unlike des quiz)</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1697,9 +1709,15 @@
       <c r="N19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="12"/>
+      <c r="O19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
@@ -1757,8 +1775,12 @@
       <c r="M22" s="6"/>
       <c r="N22" s="12"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="12"/>
+      <c r="P22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
@@ -1891,7 +1913,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,14 +2038,26 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="24"/>
+      <c r="A15" s="23">
+        <v>45384</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>45385</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="24">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
@@ -2057,7 +2091,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>21.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,7 +2145,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,14 +2270,26 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="23">
+        <v>45414</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="23">
+        <v>45415</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="24">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
@@ -2277,7 +2323,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="24">
         <f>SUM(C8:C21)</f>
-        <v>21.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
+++ b/133_GESTPROJ_RICHOZ_Matteo_MORISETTI_David.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/david_morisetti_studentfr_ch/Documents/Module 133/133_projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5BD29D-204D-4190-88F5-A98ED29B9556}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5D8603-1E43-49AA-AC39-E8D5D9494D05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -942,44 +942,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,10 +996,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1306,64 +1302,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="45">
         <v>300232</v>
       </c>
-      <c r="N3" s="45"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1373,32 +1369,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="46" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="46" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1467,13 +1463,13 @@
       <c r="E9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="11"/>
@@ -1494,9 +1490,9 @@
       <c r="C10" s="6"/>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="53"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="11"/>
       <c r="J10" s="6"/>
       <c r="K10" s="12"/>
@@ -1517,9 +1513,9 @@
       <c r="E11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="53"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="11"/>
       <c r="J11" s="6"/>
       <c r="K11" s="12"/>
@@ -1538,9 +1534,9 @@
       <c r="C12" s="6"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="9" t="s">
         <v>58</v>
       </c>
@@ -1561,9 +1557,9 @@
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="11"/>
       <c r="J13" s="5"/>
       <c r="K13" s="12"/>
@@ -1582,9 +1578,9 @@
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="53"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1605,9 +1601,9 @@
       <c r="C15" s="6"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="53"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="11"/>
       <c r="J15" s="6"/>
       <c r="K15" s="12"/>
@@ -1626,9 +1622,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="53"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="11"/>
       <c r="J16" s="6" t="s">
         <v>58</v>
@@ -1651,9 +1647,9 @@
       <c r="C17" s="6"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="53"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="11"/>
       <c r="J17" s="6" t="s">
         <v>58</v>
@@ -1671,9 +1667,9 @@
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="53"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="11"/>
       <c r="J18" s="6"/>
       <c r="K18" s="10"/>
@@ -1692,9 +1688,9 @@
       <c r="C19" s="6"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="53"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="12" t="s">
@@ -1725,9 +1721,9 @@
       <c r="C20" s="6"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="11"/>
       <c r="J20" s="6"/>
       <c r="K20" s="12"/>
@@ -1744,9 +1740,9 @@
       <c r="C21" s="6"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="53"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="11"/>
       <c r="J21" s="6"/>
       <c r="K21" s="12"/>
@@ -1765,9 +1761,9 @@
       <c r="C22" s="6"/>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="12"/>
@@ -1788,9 +1784,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="53"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="11"/>
       <c r="J23" s="6"/>
       <c r="K23" s="12"/>
@@ -1807,9 +1803,9 @@
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="53"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="29"/>
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
@@ -1828,9 +1824,9 @@
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="53"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
@@ -1847,9 +1843,9 @@
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="53"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="29"/>
       <c r="J26" s="30"/>
       <c r="K26" s="31"/>
@@ -1868,9 +1864,9 @@
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
@@ -1883,11 +1879,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F27"/>
-    <mergeCell ref="G9:G27"/>
-    <mergeCell ref="H9:H27"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -1895,6 +1886,11 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F27"/>
+    <mergeCell ref="G9:G27"/>
+    <mergeCell ref="H9:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1924,11 +1920,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2144,8 +2140,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,11 +2152,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2370,6 +2366,71 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2823,72 +2884,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2906,23 +2921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>